--- a/02.Development/Python/02.pms_backend/pms_backend/pms_platform/input_test/test.xlsx
+++ b/02.Development/Python/02.pms_backend/pms_backend/pms_platform/input_test/test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Generation 3</t>
   </si>
   <si>
+    <t>G4</t>
+  </si>
+  <si>
     <t>Generation</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
   </si>
   <si>
     <t>F4</t>
-  </si>
-  <si>
-    <t>G4</t>
   </si>
   <si>
     <t>Family5</t>
@@ -417,6 +417,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -434,7 +445,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -448,10 +459,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -459,10 +470,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -470,10 +481,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -481,15 +492,15 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -541,7 +552,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>25</v>
@@ -558,7 +569,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
@@ -575,7 +586,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>25</v>
@@ -592,7 +603,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
